--- a/Fingrid forecast 2030_Q1 2024 Data.xlsx
+++ b/Fingrid forecast 2030_Q1 2024 Data.xlsx
@@ -1816,8 +1816,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x01010090387EDD8C55E54D80759865D9542B69" ma:contentTypeVersion="15" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="e057008d6e729d06900d17fc72a431ed">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f014d427-246c-4f58-aa75-4782c2e674b5" xmlns:ns3="60a11cae-ef66-4927-be8d-635417274eb5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0feebbb4976e72b3db114770b70e531c" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010090387EDD8C55E54D80759865D9542B69" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ab830bd2b815f3d3cf140884f17572a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f014d427-246c-4f58-aa75-4782c2e674b5" xmlns:ns3="60a11cae-ef66-4927-be8d-635417274eb5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e459ecd623a8922ca9a01a983f56ded" ns2:_="" ns3:_="">
     <xsd:import namespace="f014d427-246c-4f58-aa75-4782c2e674b5"/>
     <xsd:import namespace="60a11cae-ef66-4927-be8d-635417274eb5"/>
     <xsd:element name="properties">
@@ -1860,7 +1860,7 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="7ed288b8-acd4-4d92-b472-f379e5e9de82" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="7ed288b8-acd4-4d92-b472-f379e5e9de82" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -1924,7 +1924,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Delat med" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -1943,7 +1943,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Delat med information" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -1960,8 +1960,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -2071,7 +2071,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C7961EE-DC16-4090-ACBB-622D899FF682}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CD47760-E627-4C02-9070-D0835E6AC142}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
